--- a/inst/proposals/WilsonC_Proposal_2.xlsx
+++ b/inst/proposals/WilsonC_Proposal_2.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Documents\2-Winter_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AFIT\20-1_Winter\OPER_782\Text.Replace\inst\proposals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="11490" windowHeight="4095"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="11490" windowHeight="4100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Priority</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Create a Corpus</t>
-  </si>
-  <si>
-    <t>Create a Document Feature Matrix</t>
   </si>
   <si>
     <t>DataFrame,
@@ -87,9 +84,6 @@
     <t>Consistent language for improved analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Display </t>
-  </si>
-  <si>
     <t>Intermediate variable</t>
   </si>
   <si>
@@ -100,12 +94,34 @@
   </si>
   <si>
     <t>Within timeline</t>
+  </si>
+  <si>
+    <t>Display basic package functionality</t>
+  </si>
+  <si>
+    <t>Create a Document Feature Matrix (dfm)</t>
+  </si>
+  <si>
+    <t>Creates list of dfm's based on number of initial ngrams requested</t>
+  </si>
+  <si>
+    <t>Corpus,
+ngrams to generate (default = 5)</t>
+  </si>
+  <si>
+    <t>List of Quanteda Document Feature Matrices</t>
+  </si>
+  <si>
+    <t>Faster future parsing of data</t>
+  </si>
+  <si>
+    <t>Not within timeline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,23 +461,23 @@
   <dimension ref="A4:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -484,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -498,121 +514,150 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13</v>
       </c>
